--- a/api_test_with_xlsx.xlsx
+++ b/api_test_with_xlsx.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="985" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Basic Data" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="69">
   <si>
     <t xml:space="preserve">Key</t>
   </si>
@@ -144,35 +144,6 @@
   </si>
   <si>
     <t xml:space="preserve">系統登入密碼</t>
-  </si>
-  <si>
-    <t xml:space="preserve">session_id</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>維持登入狀態的 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>session</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">verifycode_default</t>
-  </si>
-  <si>
-    <t xml:space="preserve">登入驗證碼</t>
   </si>
   <si>
     <t xml:space="preserve">api_id</t>
@@ -308,7 +279,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -343,12 +314,6 @@
       <name val="Arial Unicode MS"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -413,7 +378,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -430,10 +395,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -442,7 +403,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -450,23 +411,23 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -487,20 +448,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="B3" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.984693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="47.2448979591837"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.7295918367347"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="18.1224489795918"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.5867346938776"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="50.9183673469388"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="48.280612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="19.4948979591837"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -527,10 +488,10 @@
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -541,7 +502,7 @@
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -552,7 +513,7 @@
       <c r="B5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -593,10 +554,10 @@
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>24</v>
       </c>
     </row>
@@ -604,10 +565,10 @@
       <c r="A10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>26</v>
       </c>
     </row>
@@ -626,10 +587,10 @@
       <c r="A12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>32</v>
       </c>
     </row>
@@ -653,22 +614,6 @@
       </c>
       <c r="C14" s="2" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -695,7 +640,7 @@
   </sheetPr>
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
@@ -705,121 +650,121 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.3928571428571"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.8673469387755"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.3622448979592"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="16.75"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.4183673469388"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.4795918367347"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.0816326530612"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="18.1224489795918"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="26.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="F2" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="G2" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F2" s="5" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="B3" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="C3" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="D3" s="0" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="s">
+      <c r="E3" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="F3" s="1"/>
+      <c r="G3" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="H3" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I3" s="12"/>
+      <c r="I3" s="11"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="G4" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="H4" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I4" s="8"/>
+      <c r="I4" s="7"/>
     </row>
   </sheetData>
   <dataValidations count="2">

--- a/api_test_with_xlsx.xlsx
+++ b/api_test_with_xlsx.xlsx
@@ -224,7 +224,9 @@
     <t xml:space="preserve">接口訪問結果檢查點
 r.status_code == 200：接口訪問返回狀態碼
 resp['rcode'] == 1000：resp為接口返回結果（大部分為字典類型）
-r.text.count('"name":') &gt; 0：r.text為接口返回結果（字符串類型），通過 count 可查找字符是否存在</t>
+r.text.count('"name":') &gt; 0：r.text為接口返回結果（字符串類型），通過 count 可查找字符是否存在
+export_file == 'fans_list.xls' : 定義導出的文件名稱，其中「export_file」為參數名稱不可修改
+get_export_rows(export_file) ： 讀取導出的文件中紀錄條數（需先定義導出的文件名稱） res['fans_queryList']['data']['total'] : 讀取查詢接口返回的紀錄條數 get_role_id(查詢接口的返回數據〔res[api_id]那個〕, 需要獲取到ID的角色名稱)：通過查詢接口的角色名稱獲取角色ID</t>
   </si>
   <si>
     <t xml:space="preserve">是否執行測試（下拉菜單）</t>
@@ -453,15 +455,14 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="B3" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.5867346938776"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="50.9183673469388"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="48.280612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="19.4948979591837"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.3061224489796"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="54.9336734693878"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="52.1785714285714"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -650,10 +651,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.4183673469388"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.4795918367347"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.0816326530612"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="18.1224489795918"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.4540816326531"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.1989795918367"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.0255102040816"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="19.4948979591837"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/api_test_with_xlsx.xlsx
+++ b/api_test_with_xlsx.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Basic Data" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="73">
   <si>
     <t xml:space="preserve">Key</t>
   </si>
@@ -159,6 +159,9 @@
   </si>
   <si>
     <t xml:space="preserve">req_method</t>
+  </si>
+  <si>
+    <t xml:space="preserve">req_data_type</t>
   </si>
   <si>
     <t xml:space="preserve">req_data</t>
@@ -217,6 +220,11 @@
     <t xml:space="preserve">接口訪問請求方式（下拉菜單）</t>
   </si>
   <si>
+    <t xml:space="preserve">請求接口時的數據類型； 
+本列選項只針對 post 請求（get 請求時選擇與否都一樣）
+如無特殊情況，建議不選或選 form 那個</t>
+  </si>
+  <si>
     <t xml:space="preserve">接口請求數據
 必須是 json 格式</t>
   </si>
@@ -226,7 +234,9 @@
 resp['rcode'] == 1000：resp為接口返回結果（大部分為字典類型）
 r.text.count('"name":') &gt; 0：r.text為接口返回結果（字符串類型），通過 count 可查找字符是否存在
 export_file == 'fans_list.xls' : 定義導出的文件名稱，其中「export_file」為參數名稱不可修改
-get_export_rows(export_file) ： 讀取導出的文件中紀錄條數（需先定義導出的文件名稱） res['fans_queryList']['data']['total'] : 讀取查詢接口返回的紀錄條數 get_role_id(查詢接口的返回數據〔res[api_id]那個〕, 需要獲取到ID的角色名稱)：通過查詢接口的角色名稱獲取角色ID</t>
+get_export_rows(export_file) ： 讀取導出的文件中紀錄條數（需先定義導出的文件名稱）
+res['fans_query_list']['data']['total'] : 讀取查詢接口返回的紀錄條數
+get_role_id(查詢接口的返回數據〔res[api_id]那個〕, 需要獲取到ID的角色名稱)：通過查詢接口的角色名稱獲取角色ID</t>
   </si>
   <si>
     <t xml:space="preserve">是否執行測試（下拉菜單）</t>
@@ -268,10 +278,16 @@
     <t xml:space="preserve">post</t>
   </si>
   <si>
+    <t xml:space="preserve">application/x-www-form-urlencoded</t>
+  </si>
+  <si>
     <t xml:space="preserve">{'user': basic_data['user_name_default'], 'password': basic_data['user_pwd_default']}</t>
   </si>
   <si>
     <t xml:space="preserve">r.status_code == 200 and resp['rcode'] == 1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no</t>
   </si>
 </sst>
 </file>
@@ -452,7 +468,7 @@
   </sheetPr>
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="B3" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -460,9 +476,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.3061224489796"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="54.9336734693878"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="52.1785714285714"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.2602040816327"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="59.2908163265306"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="56.4285714285714"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.16836734693878"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -639,9 +656,9 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
@@ -651,10 +668,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.4540816326531"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.1989795918367"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.0255102040816"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="19.4948979591837"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.5969387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.1530612244898"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.9897959183673"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -685,96 +701,110 @@
       <c r="I1" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="26.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H2" s="2" t="s">
         <v>54</v>
       </c>
+      <c r="H2" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="I2" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F3" s="1"/>
-      <c r="G3" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I3" s="11"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J3" s="11"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>69</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J4" s="7"/>
     </row>
   </sheetData>
-  <dataValidations count="2">
+  <dataValidations count="3">
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E3:E4" type="list">
       <formula1>"post,get"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H3:H4" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I3:I4" type="list">
       <formula1>"yes,no"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F3:F4" type="list">
+      <formula1>"application/x-www-form-urlencoded,application/json"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>

--- a/api_test_with_xlsx.xlsx
+++ b/api_test_with_xlsx.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="75">
   <si>
     <t xml:space="preserve">Key</t>
   </si>
@@ -165,6 +165,9 @@
   </si>
   <si>
     <t xml:space="preserve">req_data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">req_file</t>
   </si>
   <si>
     <t xml:space="preserve">check_point</t>
@@ -220,13 +223,21 @@
     <t xml:space="preserve">接口訪問請求方式（下拉菜單）</t>
   </si>
   <si>
-    <t xml:space="preserve">請求接口時的數據類型； 
+    <t xml:space="preserve">請求接口時的數據類型；
 本列選項只針對 post 請求（get 請求時選擇與否都一樣）
-如無特殊情況，建議不選或選 form 那個</t>
+如無特殊情況，建議不選或選「x-www-form-urlencoded」；
+x-www-form-urlencoded 常用的表單發包方式；
+json json形式數據，實踐相當於 text/plain
+form-data 用於發送文件</t>
   </si>
   <si>
     <t xml:space="preserve">接口請求數據
 必須是 json 格式</t>
+  </si>
+  <si>
+    <t xml:space="preserve">需上傳文件名稱；
+根目錄為腳本所在目錄
+（已知問題：無法識別中文名稱文件）</t>
   </si>
   <si>
     <t xml:space="preserve">接口訪問結果檢查點
@@ -297,7 +308,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -338,6 +349,18 @@
       <name val="Arial Unicode MS"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -396,7 +419,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -429,6 +452,14 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -437,7 +468,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -445,7 +476,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -476,10 +507,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.2602040816327"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="59.2908163265306"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="56.4285714285714"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.16836734693878"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.3316326530612"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="64.1020408163265"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="60.8979591836735"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.86224489795918"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -656,7 +687,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
@@ -668,9 +699,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.5969387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.1530612244898"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.9897959183673"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.75"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.2142857142857"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.1683673469388"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.16836734693878"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -695,7 +727,7 @@
       <c r="G1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="8" t="s">
         <v>45</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -704,94 +736,102 @@
       <c r="J1" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="26.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F2" s="4" t="s">
         <v>53</v>
       </c>
+      <c r="F2" s="9" t="s">
+        <v>54</v>
+      </c>
       <c r="G2" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="H2" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="H2" s="9" t="s">
         <v>56</v>
       </c>
+      <c r="I2" s="4" t="s">
+        <v>57</v>
+      </c>
       <c r="J2" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>59</v>
+      <c r="A3" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>61</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J3" s="11"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K3" s="13"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="I4" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="J4" s="7"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K4" s="7"/>
     </row>
   </sheetData>
   <dataValidations count="3">
@@ -799,12 +839,12 @@
       <formula1>"post,get"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I3:I4" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J3:J4" type="list">
       <formula1>"yes,no"</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F3:F4" type="list">
-      <formula1>"application/x-www-form-urlencoded,application/json"</formula1>
+      <formula1>"application/x-www-form-urlencoded,application/json,multipart/form-data"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
